--- a/Teile Liste/Zusätzliche Teile.xlsx
+++ b/Teile Liste/Zusätzliche Teile.xlsx
@@ -66,10 +66,10 @@
     <t>Jumper Kabel 30cm</t>
   </si>
   <si>
-    <t>privat (länger, aber ähnlich)</t>
+    <t xml:space="preserve">privat </t>
   </si>
   <si>
-    <t>https://www.amazon.de/Female-Female-Male-Female-Male-Male-Steckbr%C3%BCcken-Drahtbr%C3%BCcken-bunt/dp/B01EV70C78/ref=asc_df_B01EV70C78/?tag=googshopde-21&amp;linkCode=df0&amp;hvadid=310491639325&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14821501274519171410&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9043428&amp;hvtargid=pla-362913641420&amp;psc=1&amp;th=1&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=59900935617&amp;hvpone=&amp;hvptwo=&amp;hvadid=310491639325&amp;hvpos=&amp;hvnetw=g&amp;hvrand=14821501274519171410&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9043428&amp;hvtargid=pla-362913641420</t>
+    <t>https://www.amazon.de/KeeYees-Drahtbr%C3%BCcken-Kopfleisten-Stiftleiste-Raspberry/dp/B07KC43D2C</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H989"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -496,18 +496,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="5">
-        <v>12</v>
+        <v>9.99</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9.99</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>10.084033613445378</v>
+        <v>8.3949579831932777</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -522,11 +522,11 @@
       <c r="C5" s="9"/>
       <c r="D5" s="10">
         <f>D2+D3+D4</f>
-        <v>29.72</v>
+        <v>27.71</v>
       </c>
       <c r="E5" s="11">
         <f>E2+E3+E4</f>
-        <v>24.974789915966387</v>
+        <v>23.285714285714285</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -7425,9 +7425,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2"/>
+    <hyperlink ref="G2" display="https://de.rs-online.com/web/p/semiconductor-entwicklungskit-zubehor/1845100?cm_mmc=DE-PLA-DS3A-_-google-_-PLA_DE_DE_Halbleiter_Whoop-_-(DE:Whoop!)+Semiconductor-Entwicklungskit-Zubeh%C3%B6r-_-PRODUCT_GROUP&amp;matchtype=&amp;pla-312444754279&amp;gclid=CjwKCAiA44LzBR"/>
     <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4"/>
+    <hyperlink ref="G4" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
